--- a/src/main/resources/dataprovider/Book1.xlsx
+++ b/src/main/resources/dataprovider/Book1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12225" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="loginData" sheetId="4" r:id="rId2"/>
-    <sheet name="giftCard" r:id="rId6" sheetId="5"/>
+    <sheet name="giftCard" sheetId="5" r:id="rId3"/>
+    <sheet name="tests" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +65,90 @@
   </si>
   <si>
     <t>wine</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>verifySiteURL</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>verifyHomePageTitle</t>
+  </si>
+  <si>
+    <t>verifyLogoPresent</t>
+  </si>
+  <si>
+    <t>pickGiftFromNavBar</t>
+  </si>
+  <si>
+    <t>pickGiftFromInputBox</t>
+  </si>
+  <si>
+    <t>verifySearchResultHeaderPage</t>
+  </si>
+  <si>
+    <t>pickGiftCardFromSearchResultPage</t>
+  </si>
+  <si>
+    <t>insertAmount</t>
+  </si>
+  <si>
+    <t>setWhoToSendPage</t>
+  </si>
+  <si>
+    <t>sendAll</t>
+  </si>
+  <si>
+    <t>doLogin</t>
+  </si>
+  <si>
+    <t>testLogin</t>
+  </si>
+  <si>
+    <t>testRegistration</t>
+  </si>
+  <si>
+    <t>searchGiftFromInputBoxSuggest</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pickGiftCardFromTopCategories</t>
+  </si>
+  <si>
+    <t>pickGiftFromMainCategories</t>
+  </si>
+  <si>
+    <t>verifyGiftCardHeaderTest</t>
+  </si>
+  <si>
+    <t>readMoreAboutProduct</t>
+  </si>
+  <si>
+    <t>VerifyMoneyBox</t>
+  </si>
+  <si>
+    <t>catchingJSErrorOnBlankMoneyBox</t>
+  </si>
+  <si>
+    <t>VerifyWhoToSendPage</t>
+  </si>
+  <si>
+    <t>VerifySomeoneElseCheckBox</t>
+  </si>
+  <si>
+    <t>verifyForMySelfCheckBox</t>
+  </si>
+  <si>
+    <t>verifyGiftPriceChange</t>
   </si>
 </sst>
 </file>
@@ -85,6 +170,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -93,6 +246,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,127 +308,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -238,6 +323,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,31 +383,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,139 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,80 +514,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,6 +535,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -534,7 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,31 +637,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,106 +670,105 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,7 +1106,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1083,38 +1167,575 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.51428571428571" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.65625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/dataprovider/Book1.xlsx
+++ b/src/main/resources/dataprovider/Book1.xlsx
@@ -71,9 +71,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,69 +84,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,7 +101,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,11 +123,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,8 +176,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -206,23 +213,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,26 +431,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,22 +474,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +490,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +533,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,130 +551,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,9 +1010,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5619047619048" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.952380952381" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.952380952381" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.5619047619048" customWidth="1"/>
+    <col min="2" max="2" width="18.952380952381" customWidth="1"/>
+    <col min="3" max="3" width="14.952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/main/resources/dataprovider/Book1.xlsx
+++ b/src/main/resources/dataprovider/Book1.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="loginData" sheetId="4" r:id="rId1"/>
     <sheet name="giftCard" sheetId="5" r:id="rId2"/>
+    <sheet name="testVol3" r:id="rId6" sheetId="6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>wine</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -70,8 +77,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -678,11 +685,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,9 +1019,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5619047619048" customWidth="1"/>
-    <col min="2" max="2" width="18.952380952381" customWidth="1"/>
-    <col min="3" max="3" width="14.952380952381" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5619047619048" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.952380952381" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.952380952381" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1076,7 +1085,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="8.51428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.51428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1103,4 +1112,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/main/resources/dataprovider/Book1.xlsx
+++ b/src/main/resources/dataprovider/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,66 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>pickGiftFromNavBar</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>pickGiftFromInputBox</t>
+  </si>
+  <si>
+    <t>searchGiftFromInputBoxSuggest</t>
+  </si>
+  <si>
+    <t>verifySearchResultHeaderPage</t>
+  </si>
+  <si>
+    <t>pickGiftCardFromTopCategories</t>
+  </si>
+  <si>
+    <t>pickGiftFromMainCategories</t>
+  </si>
+  <si>
+    <t>catchingJSErrorOnBlankMoneyBox</t>
+  </si>
+  <si>
+    <t>verifyWhoToSendPage</t>
+  </si>
+  <si>
+    <t>setWhoToSendPage</t>
+  </si>
+  <si>
+    <t>doLogin</t>
+  </si>
+  <si>
+    <t>testLogin</t>
+  </si>
+  <si>
+    <t>testProcess</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>verifySiteURL</t>
+  </si>
+  <si>
+    <t>verifyHomePageTitle</t>
+  </si>
+  <si>
+    <t>verifyLogoPresent</t>
+  </si>
+  <si>
+    <t>VerifySomeoneElseCheckBox</t>
+  </si>
+  <si>
+    <t>verifyForMySelfCheckBoxImgResponse</t>
+  </si>
+  <si>
+    <t>verifyGiftPriceChange</t>
   </si>
 </sst>
 </file>
@@ -1116,11 +1176,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.75" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
@@ -1130,6 +1194,566 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/dataprovider/Book1.xlsx
+++ b/src/main/resources/dataprovider/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,6 +1754,78 @@
         <v>19</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
